--- a/PopfreSurvey/DendroMErge.xlsx
+++ b/PopfreSurvey/DendroMErge.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\PopfreSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECFF0CE-5A3B-463E-AF7A-A99EC2C1934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF3B791-5F28-4743-8B1F-A9373256B713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Merge1" sheetId="14" r:id="rId1"/>
     <sheet name="Merged" sheetId="16" r:id="rId2"/>
-    <sheet name="Histogram" sheetId="17" r:id="rId3"/>
-    <sheet name="VerdeDendro2023Table" sheetId="1" r:id="rId4"/>
-    <sheet name="DendorSheet" sheetId="18" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId3"/>
+    <sheet name="Histogram" sheetId="17" r:id="rId4"/>
+    <sheet name="VerdeDendro2023Table" sheetId="1" r:id="rId5"/>
+    <sheet name="DendorSheet" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Database">VerdeDendro2023Table!$B$6:$F$80</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="505">
   <si>
     <t>AM</t>
   </si>
@@ -1538,6 +1539,45 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1588,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1691,6 +1731,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1889,7 +1937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2004,6 +2052,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2049,7 +2117,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2059,6 +2127,10 @@
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6227,16 +6299,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>576941</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>318405</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:rowOff>59871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>408213</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>179614</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6714,19 +6786,19 @@
       <selection activeCell="J2" sqref="J2:J191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -6761,7 +6833,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>419</v>
       </c>
@@ -6793,7 +6865,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -6825,7 +6897,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -6848,7 +6920,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -6880,7 +6952,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -6912,7 +6984,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6944,7 +7016,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -6976,7 +7048,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -7008,7 +7080,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -7031,7 +7103,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -7063,7 +7135,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -7095,7 +7167,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -7127,7 +7199,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -7159,7 +7231,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>405</v>
       </c>
@@ -7176,7 +7248,7 @@
         <v>425532</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -7199,7 +7271,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -7231,7 +7303,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -7254,7 +7326,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -7286,7 +7358,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -7309,7 +7381,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -7341,7 +7413,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>397</v>
       </c>
@@ -7367,7 +7439,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -7396,7 +7468,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -7428,7 +7500,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -7457,7 +7529,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -7480,7 +7552,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -7512,7 +7584,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>390</v>
       </c>
@@ -7529,7 +7601,7 @@
         <v>425579</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -7558,7 +7630,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -7590,7 +7662,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>386</v>
       </c>
@@ -7607,7 +7679,7 @@
         <v>425585</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -7630,7 +7702,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -7653,7 +7725,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -7679,7 +7751,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -7699,7 +7771,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -7719,7 +7791,7 @@
         <v>434730</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>154</v>
       </c>
@@ -7736,7 +7808,7 @@
         <v>434718</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -7756,7 +7828,7 @@
         <v>434718</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -7776,7 +7848,7 @@
         <v>434696</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -7805,7 +7877,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -7837,7 +7909,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -7869,7 +7941,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -7898,7 +7970,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -7930,7 +8002,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -7959,7 +8031,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -7991,7 +8063,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>197</v>
       </c>
@@ -8008,7 +8080,7 @@
         <v>434661</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>324</v>
       </c>
@@ -8025,7 +8097,7 @@
         <v>434661</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>195</v>
       </c>
@@ -8054,7 +8126,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -8080,7 +8152,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -8115,7 +8187,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>165</v>
       </c>
@@ -8144,7 +8216,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>367</v>
       </c>
@@ -8161,7 +8233,7 @@
         <v>434542</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -8193,7 +8265,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>364</v>
       </c>
@@ -8216,7 +8288,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>362</v>
       </c>
@@ -8230,7 +8302,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -8256,7 +8328,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>179</v>
       </c>
@@ -8276,7 +8348,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>322</v>
       </c>
@@ -8293,7 +8365,7 @@
         <v>434661</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>163</v>
       </c>
@@ -8319,7 +8391,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -8345,7 +8417,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>356</v>
       </c>
@@ -8371,7 +8443,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>353</v>
       </c>
@@ -8385,7 +8457,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>182</v>
       </c>
@@ -8402,7 +8474,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>348</v>
       </c>
@@ -8422,7 +8494,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>156</v>
       </c>
@@ -8445,7 +8517,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>134</v>
       </c>
@@ -8474,7 +8546,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>170</v>
       </c>
@@ -8503,7 +8575,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>344</v>
       </c>
@@ -8520,7 +8592,7 @@
         <v>434762</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -8540,7 +8612,7 @@
         <v>434661</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -8572,7 +8644,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -8601,7 +8673,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>341</v>
       </c>
@@ -8618,7 +8690,7 @@
         <v>434758</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -8647,7 +8719,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>339</v>
       </c>
@@ -8679,7 +8751,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -8711,7 +8783,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -8740,7 +8812,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>336</v>
       </c>
@@ -8757,7 +8829,7 @@
         <v>434740</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -8789,7 +8861,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>157</v>
       </c>
@@ -8818,7 +8890,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -8841,7 +8913,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -8870,7 +8942,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>207</v>
       </c>
@@ -8893,7 +8965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>206</v>
       </c>
@@ -8916,7 +8988,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -8939,7 +9011,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -8956,7 +9028,7 @@
         <v>426565</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -8985,7 +9057,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -9008,7 +9080,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>241</v>
       </c>
@@ -9025,7 +9097,7 @@
         <v>426539</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -9057,7 +9129,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>238</v>
       </c>
@@ -9071,7 +9143,7 @@
         <v>426573</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -9097,7 +9169,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>235</v>
       </c>
@@ -9114,7 +9186,7 @@
         <v>426573</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -9146,7 +9218,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>232</v>
       </c>
@@ -9178,7 +9250,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>230</v>
       </c>
@@ -9195,7 +9267,7 @@
         <v>426561</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -9224,7 +9296,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -9256,7 +9328,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -9288,7 +9360,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>226</v>
       </c>
@@ -9305,7 +9377,7 @@
         <v>426566</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -9334,7 +9406,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>95</v>
       </c>
@@ -9357,7 +9429,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -9389,7 +9461,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -9418,7 +9490,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -9447,7 +9519,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -9476,7 +9548,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -9505,7 +9577,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -9522,7 +9594,7 @@
         <v>426565</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -9551,7 +9623,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -9580,7 +9652,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>73</v>
       </c>
@@ -9603,7 +9675,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -9626,7 +9698,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>94</v>
       </c>
@@ -9649,7 +9721,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -9681,7 +9753,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>107</v>
       </c>
@@ -9710,7 +9782,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -9739,7 +9811,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>106</v>
       </c>
@@ -9771,7 +9843,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -9800,7 +9872,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>91</v>
       </c>
@@ -9820,7 +9892,7 @@
         <v>426565</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>244</v>
       </c>
@@ -9828,7 +9900,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -9857,7 +9929,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>49</v>
       </c>
@@ -9877,7 +9949,7 @@
         <v>435609</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -9906,7 +9978,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>56</v>
       </c>
@@ -9929,7 +10001,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -9946,7 +10018,7 @@
         <v>435600</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -9969,7 +10041,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>68</v>
       </c>
@@ -10001,7 +10073,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>64</v>
       </c>
@@ -10033,7 +10105,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -10065,7 +10137,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>40</v>
       </c>
@@ -10097,7 +10169,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -10129,7 +10201,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>152</v>
       </c>
@@ -10158,7 +10230,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>44</v>
       </c>
@@ -10181,7 +10253,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>70</v>
       </c>
@@ -10204,7 +10276,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>37</v>
       </c>
@@ -10236,7 +10308,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -10265,7 +10337,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>60</v>
       </c>
@@ -10288,7 +10360,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>62</v>
       </c>
@@ -10320,7 +10392,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -10352,7 +10424,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -10384,7 +10456,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>29</v>
       </c>
@@ -10407,7 +10479,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -10430,7 +10502,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>200</v>
       </c>
@@ -10459,7 +10531,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>63</v>
       </c>
@@ -10491,7 +10563,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>51</v>
       </c>
@@ -10514,7 +10586,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>53</v>
       </c>
@@ -10537,7 +10609,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>247</v>
       </c>
@@ -10554,7 +10626,7 @@
         <v>435600</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>199</v>
       </c>
@@ -10583,7 +10655,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -10606,7 +10678,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>52</v>
       </c>
@@ -10638,7 +10710,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>292</v>
       </c>
@@ -10655,7 +10727,7 @@
         <v>435671</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>290</v>
       </c>
@@ -10672,7 +10744,7 @@
         <v>435671</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>67</v>
       </c>
@@ -10704,7 +10776,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>22</v>
       </c>
@@ -10727,7 +10799,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>286</v>
       </c>
@@ -10744,7 +10816,7 @@
         <v>435664</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -10767,7 +10839,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>150</v>
       </c>
@@ -10796,7 +10868,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>149</v>
       </c>
@@ -10825,7 +10897,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>282</v>
       </c>
@@ -10842,7 +10914,7 @@
         <v>435667</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>55</v>
       </c>
@@ -10874,7 +10946,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -10906,7 +10978,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>59</v>
       </c>
@@ -10938,7 +11010,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>50</v>
       </c>
@@ -10970,7 +11042,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>276</v>
       </c>
@@ -10987,7 +11059,7 @@
         <v>435648</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>54</v>
       </c>
@@ -11010,7 +11082,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>148</v>
       </c>
@@ -11039,7 +11111,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>130</v>
       </c>
@@ -11068,7 +11140,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -11100,7 +11172,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>147</v>
       </c>
@@ -11129,7 +11201,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>146</v>
       </c>
@@ -11158,7 +11230,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -11190,7 +11262,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>128</v>
       </c>
@@ -11219,7 +11291,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>90</v>
       </c>
@@ -11251,7 +11323,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>47</v>
       </c>
@@ -11283,7 +11355,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>266</v>
       </c>
@@ -11312,7 +11384,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -11335,7 +11407,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -11358,7 +11430,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>25</v>
       </c>
@@ -11381,7 +11453,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>261</v>
       </c>
@@ -11398,7 +11470,7 @@
         <v>435619</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>126</v>
       </c>
@@ -11415,7 +11487,7 @@
         <v>435600</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>97</v>
       </c>
@@ -11438,7 +11510,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>133</v>
       </c>
@@ -11464,7 +11536,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>36</v>
       </c>
@@ -11496,7 +11568,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>257</v>
       </c>
@@ -11525,7 +11597,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -11548,7 +11620,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>69</v>
       </c>
@@ -11580,7 +11652,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>145</v>
       </c>
@@ -11609,7 +11681,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>129</v>
       </c>
@@ -11638,7 +11710,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>71</v>
       </c>
@@ -11670,7 +11742,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>251</v>
       </c>
@@ -11687,7 +11759,7 @@
         <v>435609</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>32</v>
       </c>
@@ -11735,20 +11807,20 @@
       <selection activeCell="O1" sqref="O1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>434</v>
       </c>
@@ -11798,7 +11870,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -11850,7 +11922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>251</v>
       </c>
@@ -11887,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -11933,7 +12005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -11979,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -12025,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -12071,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -12111,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -12157,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -12203,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -12249,7 +12321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -12289,7 +12361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -12326,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -12369,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -12409,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -12449,7 +12521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -12489,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>266</v>
       </c>
@@ -12535,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -12581,7 +12653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -12627,7 +12699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -12673,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -12719,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -12765,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -12811,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -12857,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -12903,7 +12975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -12949,7 +13021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -12995,7 +13067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -13032,7 +13104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -13078,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -13124,7 +13196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -13170,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -13216,7 +13288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -13259,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>149</v>
       </c>
@@ -13305,7 +13377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -13351,7 +13423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -13391,7 +13463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>286</v>
       </c>
@@ -13431,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -13471,7 +13543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -13517,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>290</v>
       </c>
@@ -13554,7 +13626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>292</v>
       </c>
@@ -13591,7 +13663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -13637,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -13677,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>199</v>
       </c>
@@ -13723,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>247</v>
       </c>
@@ -13754,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -13786,7 +13858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -13813,7 +13885,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -13839,7 +13911,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -13865,7 +13937,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -13891,7 +13963,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -13911,7 +13983,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -13937,7 +14009,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -13963,7 +14035,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
@@ -13996,7 +14068,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -14016,7 +14088,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -14042,7 +14114,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -14068,7 +14140,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -14088,7 +14160,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -14108,7 +14180,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -14134,7 +14206,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -14160,7 +14232,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -14186,7 +14258,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -14212,7 +14284,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -14238,7 +14310,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -14264,7 +14336,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -14284,7 +14356,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -14301,7 +14373,7 @@
         <v>435600</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -14321,7 +14393,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -14344,7 +14416,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -14361,7 +14433,7 @@
         <v>435609</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -14387,7 +14459,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -14410,7 +14482,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>209</v>
       </c>
@@ -14436,7 +14508,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -14465,7 +14537,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -14491,7 +14563,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -14517,7 +14589,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -14543,7 +14615,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -14563,7 +14635,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>72</v>
       </c>
@@ -14583,7 +14655,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>73</v>
       </c>
@@ -14609,7 +14681,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -14635,7 +14707,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -14661,7 +14733,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -14678,7 +14750,7 @@
         <v>426565</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -14704,7 +14776,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>120</v>
       </c>
@@ -14730,7 +14802,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>121</v>
       </c>
@@ -14756,7 +14828,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -14782,7 +14854,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>66</v>
       </c>
@@ -14808,7 +14880,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -14834,7 +14906,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -14860,7 +14932,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>226</v>
       </c>
@@ -14883,7 +14955,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -14909,7 +14981,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>74</v>
       </c>
@@ -14940,7 +15012,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>115</v>
       </c>
@@ -14966,7 +15038,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>230</v>
       </c>
@@ -14983,7 +15055,7 @@
         <v>426561</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>232</v>
       </c>
@@ -15009,7 +15081,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -15035,7 +15107,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>235</v>
       </c>
@@ -15058,7 +15130,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -15081,7 +15153,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>238</v>
       </c>
@@ -15104,7 +15176,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>83</v>
       </c>
@@ -15130,7 +15202,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>241</v>
       </c>
@@ -15153,7 +15225,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>82</v>
       </c>
@@ -15173,7 +15245,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -15199,7 +15271,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>204</v>
       </c>
@@ -15216,7 +15288,7 @@
         <v>426565</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -15236,7 +15308,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -15256,7 +15328,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -15276,7 +15348,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -15302,7 +15374,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>178</v>
       </c>
@@ -15322,7 +15394,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>157</v>
       </c>
@@ -15348,7 +15420,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>81</v>
       </c>
@@ -15374,7 +15446,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>336</v>
       </c>
@@ -15397,7 +15469,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -15423,7 +15495,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -15449,7 +15521,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>339</v>
       </c>
@@ -15475,7 +15547,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>166</v>
       </c>
@@ -15501,7 +15573,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>341</v>
       </c>
@@ -15524,7 +15596,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>158</v>
       </c>
@@ -15550,7 +15622,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>79</v>
       </c>
@@ -15576,7 +15648,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>85</v>
       </c>
@@ -15599,7 +15671,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>344</v>
       </c>
@@ -15616,7 +15688,7 @@
         <v>434762</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>170</v>
       </c>
@@ -15642,7 +15714,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -15668,7 +15740,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>156</v>
       </c>
@@ -15688,7 +15760,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>348</v>
       </c>
@@ -15711,7 +15783,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>182</v>
       </c>
@@ -15728,7 +15800,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>353</v>
       </c>
@@ -15748,7 +15820,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>356</v>
       </c>
@@ -15771,7 +15843,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>168</v>
       </c>
@@ -15794,7 +15866,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>163</v>
       </c>
@@ -15817,7 +15889,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>322</v>
       </c>
@@ -15834,7 +15906,7 @@
         <v>434661</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>179</v>
       </c>
@@ -15851,7 +15923,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>167</v>
       </c>
@@ -15874,7 +15946,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>362</v>
       </c>
@@ -15894,7 +15966,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>364</v>
       </c>
@@ -15914,7 +15986,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -15940,7 +16012,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>367</v>
       </c>
@@ -15957,7 +16029,7 @@
         <v>434542</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>165</v>
       </c>
@@ -15983,7 +16055,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>78</v>
       </c>
@@ -16012,7 +16084,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -16035,7 +16107,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>195</v>
       </c>
@@ -16061,7 +16133,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>324</v>
       </c>
@@ -16084,7 +16156,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>77</v>
       </c>
@@ -16110,7 +16182,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -16136,7 +16208,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>84</v>
       </c>
@@ -16162,7 +16234,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>159</v>
       </c>
@@ -16188,7 +16260,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -16214,7 +16286,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -16240,7 +16312,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -16266,7 +16338,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>197</v>
       </c>
@@ -16283,7 +16355,7 @@
         <v>434661</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>86</v>
       </c>
@@ -16300,7 +16372,7 @@
         <v>434696</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>76</v>
       </c>
@@ -16317,7 +16389,7 @@
         <v>434718</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16334,7 +16406,7 @@
         <v>434718</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>80</v>
       </c>
@@ -16351,7 +16423,7 @@
         <v>434730</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>331</v>
       </c>
@@ -16371,7 +16443,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>319</v>
       </c>
@@ -16379,7 +16451,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>93</v>
       </c>
@@ -16405,7 +16477,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>65</v>
       </c>
@@ -16431,7 +16503,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>38</v>
       </c>
@@ -16451,7 +16523,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>386</v>
       </c>
@@ -16468,7 +16540,7 @@
         <v>425585</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>92</v>
       </c>
@@ -16494,7 +16566,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>100</v>
       </c>
@@ -16520,7 +16592,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>390</v>
       </c>
@@ -16537,7 +16609,7 @@
         <v>425579</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>39</v>
       </c>
@@ -16563,7 +16635,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>57</v>
       </c>
@@ -16583,7 +16655,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>101</v>
       </c>
@@ -16609,7 +16681,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>18</v>
       </c>
@@ -16635,7 +16707,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>122</v>
       </c>
@@ -16661,7 +16733,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>397</v>
       </c>
@@ -16681,7 +16753,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -16707,7 +16779,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -16727,7 +16799,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>46</v>
       </c>
@@ -16753,7 +16825,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>102</v>
       </c>
@@ -16773,7 +16845,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>41</v>
       </c>
@@ -16799,7 +16871,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>61</v>
       </c>
@@ -16819,7 +16891,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>405</v>
       </c>
@@ -16842,7 +16914,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -16868,7 +16940,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -16894,7 +16966,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>43</v>
       </c>
@@ -16920,7 +16992,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>48</v>
       </c>
@@ -16946,7 +17018,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -16966,7 +17038,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>103</v>
       </c>
@@ -16992,7 +17064,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>34</v>
       </c>
@@ -17018,7 +17090,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -17044,7 +17116,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>45</v>
       </c>
@@ -17070,7 +17142,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>28</v>
       </c>
@@ -17096,7 +17168,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>87</v>
       </c>
@@ -17116,7 +17188,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>75</v>
       </c>
@@ -17142,7 +17214,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>419</v>
       </c>
@@ -17178,1003 +17250,208 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0B664C-418D-4143-987A-8B8AE6AD3819}">
-  <dimension ref="A1:M48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DBEBB8-28BA-4255-AF8D-F9B669C09092}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="C3" sqref="C3:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3">
+        <v>2004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3">
+        <v>3.838709677419355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4">
+        <v>1.6329931618554521</v>
+      </c>
+      <c r="C4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4">
+        <v>0.6879872063600877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5">
+        <v>2004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7">
+        <v>9.0921211313239034</v>
+      </c>
+      <c r="C7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7">
+        <v>3.8305506496546804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B8">
+        <v>82.666666666666671</v>
+      </c>
+      <c r="C8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8">
+        <v>14.673118279569893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9">
+        <v>-1.1999999999999988</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9">
+        <v>0.18484598778626049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <v>-3.1647736793912508E-17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>0.99539070718204192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12">
+        <v>1989</v>
+      </c>
+      <c r="C12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B14">
+        <v>62124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" t="s">
-        <v>443</v>
-      </c>
-      <c r="L1" t="s">
-        <v>451</v>
-      </c>
-      <c r="M1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1980</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>121</v>
-      </c>
-      <c r="G2">
-        <v>1975</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>15</v>
-      </c>
-      <c r="L2">
-        <v>1989</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1981</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1976</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1990</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1982</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1977</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1991</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1983</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1978</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1992</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1984</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1979</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1993</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1985</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1980</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1994</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1986</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1981</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1995</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1987</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1987</v>
-      </c>
-      <c r="G9">
-        <v>1982</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1996</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1988</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1988</v>
-      </c>
-      <c r="G10">
-        <v>1983</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1997</v>
-      </c>
-      <c r="M10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1989</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1989</v>
-      </c>
-      <c r="G11">
-        <v>1984</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1998</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1990</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1985</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1999</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1991</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>3982</v>
-      </c>
-      <c r="G13">
-        <v>1986</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>2000</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1992</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1992</v>
-      </c>
-      <c r="G14">
-        <v>1987</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>2001</v>
-      </c>
-      <c r="M14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1993</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>15944</v>
-      </c>
-      <c r="G15">
-        <v>1988</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>2002</v>
-      </c>
-      <c r="M15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1994</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>11964</v>
-      </c>
-      <c r="G16">
-        <v>1989</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>2003</v>
-      </c>
-      <c r="M16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1995</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>11970</v>
-      </c>
-      <c r="G17">
-        <v>1990</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>2004</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1996</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>3992</v>
-      </c>
-      <c r="G18">
-        <v>1991</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>2005</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1997</v>
-      </c>
-      <c r="B19">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>25961</v>
-      </c>
-      <c r="G19">
-        <v>1992</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>2006</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1998</v>
-      </c>
-      <c r="B20">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>25974</v>
-      </c>
-      <c r="G20">
-        <v>1993</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>2007</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1999</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>19990</v>
-      </c>
-      <c r="G21">
-        <v>1994</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>2008</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2000</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>12000</v>
-      </c>
-      <c r="G22">
-        <v>1995</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>2009</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2001</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>18009</v>
-      </c>
-      <c r="G23">
-        <v>1996</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>2010</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2002</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>14014</v>
-      </c>
-      <c r="G24">
-        <v>1997</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>2011</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2003</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>14021</v>
-      </c>
-      <c r="G25">
-        <v>1998</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>2012</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2004</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>2004</v>
-      </c>
-      <c r="G26">
-        <v>1999</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>2013</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2005</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>8020</v>
-      </c>
-      <c r="G27">
-        <v>2000</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>2014</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2006</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>10030</v>
-      </c>
-      <c r="G28">
-        <v>2001</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>2015</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2007</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>10035</v>
-      </c>
-      <c r="G29">
-        <v>2002</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>2016</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2008</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>4016</v>
-      </c>
-      <c r="G30">
-        <v>2003</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>2017</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2009</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>4018</v>
-      </c>
-      <c r="G31">
-        <v>2004</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>2018</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2010</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>8040</v>
-      </c>
-      <c r="G32">
-        <v>2005</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>2019</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2011</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>2011</v>
-      </c>
-      <c r="G33">
-        <v>2006</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2012</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>2012</v>
-      </c>
-      <c r="G34">
-        <v>2007</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2013</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>2008</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2014</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>4028</v>
-      </c>
-      <c r="G36">
-        <v>2009</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2015</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>2010</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2016</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>2016</v>
-      </c>
-      <c r="G38">
-        <v>2011</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2017</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>2012</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2018</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>2013</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2019</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>2014</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2020</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>2015</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2021</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>2016</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2022</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>2017</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2023</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>2018</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G46">
-        <v>2019</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C47">
-        <v>242007</v>
-      </c>
-      <c r="G47">
-        <v>2020</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C48">
-        <v>2000.0578512396694</v>
-      </c>
-      <c r="D48" t="s">
-        <v>444</v>
+      <c r="B15" s="9">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="9">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -18183,6 +17460,1015 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0B664C-418D-4143-987A-8B8AE6AD3819}">
+  <dimension ref="A1:O48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L1" t="s">
+        <v>451</v>
+      </c>
+      <c r="M1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1980</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>121</v>
+      </c>
+      <c r="G2">
+        <v>1975</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>1989</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1981</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1976</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1990</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1982</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1977</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1991</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1983</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1978</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1992</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1984</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1979</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1993</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1985</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1980</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1994</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1986</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1981</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1995</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1987</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1987</v>
+      </c>
+      <c r="G9">
+        <v>1982</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1996</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1988</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1988</v>
+      </c>
+      <c r="G10">
+        <v>1983</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1997</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1989</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1989</v>
+      </c>
+      <c r="G11">
+        <v>1984</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1998</v>
+      </c>
+      <c r="M11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1990</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1985</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1999</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1991</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3982</v>
+      </c>
+      <c r="G13">
+        <v>1986</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>2000</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <f>SUM(M2:M32)</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1992</v>
+      </c>
+      <c r="G14">
+        <v>1987</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2001</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>15944</v>
+      </c>
+      <c r="G15">
+        <v>1988</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>2002</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1994</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>11964</v>
+      </c>
+      <c r="G16">
+        <v>1989</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2003</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>11970</v>
+      </c>
+      <c r="G17">
+        <v>1990</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2004</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1996</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3992</v>
+      </c>
+      <c r="G18">
+        <v>1991</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2005</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>25961</v>
+      </c>
+      <c r="G19">
+        <v>1992</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2006</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>25974</v>
+      </c>
+      <c r="G20">
+        <v>1993</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2007</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>19990</v>
+      </c>
+      <c r="G21">
+        <v>1994</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>2008</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>12000</v>
+      </c>
+      <c r="G22">
+        <v>1995</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>2009</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>18009</v>
+      </c>
+      <c r="G23">
+        <v>1996</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>2010</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2002</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>14014</v>
+      </c>
+      <c r="G24">
+        <v>1997</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>2011</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>14021</v>
+      </c>
+      <c r="G25">
+        <v>1998</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>2012</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2004</v>
+      </c>
+      <c r="G26">
+        <v>1999</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2013</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2005</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>8020</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2014</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>10030</v>
+      </c>
+      <c r="G28">
+        <v>2001</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2015</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>10035</v>
+      </c>
+      <c r="G29">
+        <v>2002</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>2016</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>4016</v>
+      </c>
+      <c r="G30">
+        <v>2003</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>2017</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4018</v>
+      </c>
+      <c r="G31">
+        <v>2004</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>2018</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>8040</v>
+      </c>
+      <c r="G32">
+        <v>2005</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>2019</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2011</v>
+      </c>
+      <c r="G33">
+        <v>2006</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2012</v>
+      </c>
+      <c r="G34">
+        <v>2007</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2008</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>4028</v>
+      </c>
+      <c r="G36">
+        <v>2009</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>2010</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2016</v>
+      </c>
+      <c r="G38">
+        <v>2011</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>2012</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2013</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>2014</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2020</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>2015</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2021</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2016</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2022</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>2017</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>2018</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>2019</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>242007</v>
+      </c>
+      <c r="G47">
+        <v>2020</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>2000.0578512396694</v>
+      </c>
+      <c r="D48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W192"/>
   <sheetViews>
@@ -18190,26 +18476,26 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>459</v>
       </c>
@@ -18256,7 +18542,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
@@ -18301,7 +18587,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>247</v>
       </c>
@@ -18335,7 +18621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
@@ -18380,7 +18666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>129</v>
       </c>
@@ -18414,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
@@ -18447,7 +18733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
@@ -18493,7 +18779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -18542,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>136</v>
       </c>
@@ -18577,7 +18863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
@@ -18624,7 +18910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>468</v>
       </c>
@@ -18660,7 +18946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>133</v>
       </c>
@@ -18698,7 +18984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>97</v>
       </c>
@@ -18737,7 +19023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
@@ -18787,7 +19073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
@@ -18827,7 +19113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
@@ -18877,7 +19163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>471</v>
       </c>
@@ -18914,7 +19200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>137</v>
       </c>
@@ -18948,7 +19234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
@@ -18995,7 +19281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
@@ -19042,7 +19328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>128</v>
       </c>
@@ -19077,7 +19363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -19124,7 +19410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>146</v>
       </c>
@@ -19159,7 +19445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
@@ -19194,7 +19480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>147</v>
       </c>
@@ -19228,7 +19514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
@@ -19275,7 +19561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>130</v>
       </c>
@@ -19310,7 +19596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>148</v>
       </c>
@@ -19349,7 +19635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
@@ -19400,7 +19686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>276</v>
       </c>
@@ -19440,7 +19726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
@@ -19487,7 +19773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
@@ -19534,7 +19820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
@@ -19581,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
@@ -19628,7 +19914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>149</v>
       </c>
@@ -19662,7 +19948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>282</v>
       </c>
@@ -19698,7 +19984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>150</v>
       </c>
@@ -19745,7 +20031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
@@ -19783,7 +20069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>286</v>
       </c>
@@ -19821,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>22</v>
       </c>
@@ -19859,7 +20145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>67</v>
       </c>
@@ -19905,7 +20191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
@@ -19950,7 +20236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
@@ -19980,7 +20266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>199</v>
       </c>
@@ -20006,7 +20292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
@@ -20038,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>51</v>
       </c>
@@ -20076,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>63</v>
       </c>
@@ -20114,7 +20400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>200</v>
       </c>
@@ -20140,7 +20426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
@@ -20170,7 +20456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
@@ -20200,7 +20486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>33</v>
       </c>
@@ -20238,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>11</v>
       </c>
@@ -20276,7 +20562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>62</v>
       </c>
@@ -20314,7 +20600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>60</v>
       </c>
@@ -20348,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>151</v>
       </c>
@@ -20374,7 +20660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>37</v>
       </c>
@@ -20413,7 +20699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>70</v>
       </c>
@@ -20455,7 +20741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>44</v>
       </c>
@@ -20497,7 +20783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>152</v>
       </c>
@@ -20524,7 +20810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
@@ -20563,7 +20849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>40</v>
       </c>
@@ -20602,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
@@ -20641,7 +20927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
@@ -20680,7 +20966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>68</v>
       </c>
@@ -20719,7 +21005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>10</v>
       </c>
@@ -20761,7 +21047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>56</v>
       </c>
@@ -20792,7 +21078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>19</v>
       </c>
@@ -20831,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>49</v>
       </c>
@@ -20862,7 +21148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -20891,7 +21177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>131</v>
       </c>
@@ -20918,7 +21204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>153</v>
       </c>
@@ -20945,7 +21231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>117</v>
       </c>
@@ -20974,7 +21260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>106</v>
       </c>
@@ -21004,7 +21290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>124</v>
       </c>
@@ -21032,7 +21318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>107</v>
       </c>
@@ -21061,7 +21347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
@@ -21099,7 +21385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>94</v>
       </c>
@@ -21129,7 +21415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>72</v>
       </c>
@@ -21159,7 +21445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>73</v>
       </c>
@@ -21197,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>108</v>
       </c>
@@ -21226,7 +21512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>109</v>
       </c>
@@ -21251,7 +21537,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>91</v>
       </c>
@@ -21285,7 +21571,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>110</v>
       </c>
@@ -21313,7 +21599,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>120</v>
       </c>
@@ -21338,7 +21624,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>121</v>
       </c>
@@ -21363,7 +21649,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>113</v>
       </c>
@@ -21388,7 +21674,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>66</v>
       </c>
@@ -21426,7 +21712,7 @@
       </c>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>95</v>
       </c>
@@ -21453,7 +21739,7 @@
       <c r="I88" s="4"/>
       <c r="Q88" s="3"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>114</v>
       </c>
@@ -21476,7 +21762,7 @@
       </c>
       <c r="Q89" s="3"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>226</v>
       </c>
@@ -21499,7 +21785,7 @@
       </c>
       <c r="Q90" s="3"/>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>96</v>
       </c>
@@ -21537,7 +21823,7 @@
       </c>
       <c r="Q91" s="3"/>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>74</v>
       </c>
@@ -21572,7 +21858,7 @@
       </c>
       <c r="Q92" s="3"/>
     </row>
-    <row r="93" spans="2:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="G93" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -21586,7 +21872,7 @@
       <c r="K93" s="1"/>
       <c r="Q93" s="3"/>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>123</v>
       </c>
@@ -21612,7 +21898,7 @@
       </c>
       <c r="Q94" s="3"/>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>115</v>
       </c>
@@ -21640,7 +21926,7 @@
       </c>
       <c r="Q95" s="3"/>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>204</v>
       </c>
@@ -21663,7 +21949,7 @@
       </c>
       <c r="Q96" s="3"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>184</v>
       </c>
@@ -21700,7 +21986,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>17</v>
       </c>
@@ -21736,7 +22022,7 @@
       <c r="L98" s="1"/>
       <c r="Q98" s="3"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>235</v>
       </c>
@@ -21760,7 +22046,7 @@
       <c r="L99" s="1"/>
       <c r="Q99" s="3"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
@@ -21786,7 +22072,7 @@
       </c>
       <c r="Q100" s="3"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>238</v>
       </c>
@@ -21813,7 +22099,7 @@
       </c>
       <c r="Q101" s="3"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>83</v>
       </c>
@@ -21850,7 +22136,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>82</v>
       </c>
@@ -21879,7 +22165,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>111</v>
       </c>
@@ -21904,7 +22190,7 @@
       </c>
       <c r="Q104" s="3"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>23</v>
       </c>
@@ -21930,7 +22216,7 @@
       <c r="I105" s="4"/>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>2</v>
       </c>
@@ -21956,7 +22242,7 @@
       <c r="I106" s="4"/>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>58</v>
       </c>
@@ -21994,7 +22280,7 @@
       </c>
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>112</v>
       </c>
@@ -22019,7 +22305,7 @@
       </c>
       <c r="Q108" s="3"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>178</v>
       </c>
@@ -22042,7 +22328,7 @@
       </c>
       <c r="Q109" s="3"/>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>85</v>
       </c>
@@ -22068,7 +22354,7 @@
       <c r="I110" s="4"/>
       <c r="Q110" s="3"/>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>479</v>
       </c>
@@ -22098,7 +22384,7 @@
       </c>
       <c r="Q111" s="3"/>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>481</v>
       </c>
@@ -22125,7 +22411,7 @@
       </c>
       <c r="Q112" s="3"/>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>157</v>
       </c>
@@ -22148,7 +22434,7 @@
       </c>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>81</v>
       </c>
@@ -22183,7 +22469,7 @@
       </c>
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>476</v>
       </c>
@@ -22213,7 +22499,7 @@
       </c>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>161</v>
       </c>
@@ -22235,7 +22521,7 @@
       </c>
       <c r="Q116" s="3"/>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>20</v>
       </c>
@@ -22270,7 +22556,7 @@
       </c>
       <c r="Q117" s="3"/>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>185</v>
       </c>
@@ -22304,7 +22590,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>166</v>
       </c>
@@ -22326,7 +22612,7 @@
       </c>
       <c r="Q119" s="3"/>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>341</v>
       </c>
@@ -22349,7 +22635,7 @@
       </c>
       <c r="Q120" s="3"/>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>158</v>
       </c>
@@ -22371,7 +22657,7 @@
       </c>
       <c r="Q121" s="3"/>
     </row>
-    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>79</v>
       </c>
@@ -22406,7 +22692,7 @@
       </c>
       <c r="Q122" s="3"/>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>170</v>
       </c>
@@ -22428,7 +22714,7 @@
       </c>
       <c r="Q123" s="3"/>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>134</v>
       </c>
@@ -22450,7 +22736,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>156</v>
       </c>
@@ -22475,7 +22761,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>182</v>
       </c>
@@ -22498,7 +22784,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>353</v>
       </c>
@@ -22520,7 +22806,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>162</v>
       </c>
@@ -22542,7 +22828,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="129" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>168</v>
       </c>
@@ -22564,7 +22850,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="130" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>163</v>
       </c>
@@ -22589,7 +22875,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>179</v>
       </c>
@@ -22614,7 +22900,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="132" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>167</v>
       </c>
@@ -22637,7 +22923,7 @@
       </c>
       <c r="Q132" s="3"/>
     </row>
-    <row r="133" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>362</v>
       </c>
@@ -22660,7 +22946,7 @@
       </c>
       <c r="Q133" s="3"/>
     </row>
-    <row r="134" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>186</v>
       </c>
@@ -22698,7 +22984,7 @@
       </c>
       <c r="Q134" s="3"/>
     </row>
-    <row r="135" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>5</v>
       </c>
@@ -22733,7 +23019,7 @@
       </c>
       <c r="Q135" s="3"/>
     </row>
-    <row r="136" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>367</v>
       </c>
@@ -22760,7 +23046,7 @@
       </c>
       <c r="Q136" s="3"/>
     </row>
-    <row r="137" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>165</v>
       </c>
@@ -22783,7 +23069,7 @@
       </c>
       <c r="Q137" s="3"/>
     </row>
-    <row r="138" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>78</v>
       </c>
@@ -22818,7 +23104,7 @@
       </c>
       <c r="Q138" s="3"/>
     </row>
-    <row r="139" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>7</v>
       </c>
@@ -22845,7 +23131,7 @@
       <c r="I139" s="4"/>
       <c r="Q139" s="3"/>
     </row>
-    <row r="140" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>195</v>
       </c>
@@ -22868,7 +23154,7 @@
       </c>
       <c r="Q140" s="3"/>
     </row>
-    <row r="141" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>324</v>
       </c>
@@ -22891,7 +23177,7 @@
       </c>
       <c r="Q141" s="3"/>
     </row>
-    <row r="142" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>197</v>
       </c>
@@ -22915,7 +23201,7 @@
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
     </row>
-    <row r="143" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>77</v>
       </c>
@@ -22952,7 +23238,7 @@
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
     </row>
-    <row r="144" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>164</v>
       </c>
@@ -22974,7 +23260,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="145" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>84</v>
       </c>
@@ -23009,7 +23295,7 @@
       </c>
       <c r="Q145" s="3"/>
     </row>
-    <row r="146" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>159</v>
       </c>
@@ -23032,7 +23318,7 @@
       </c>
       <c r="Q146" s="3"/>
     </row>
-    <row r="147" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>88</v>
       </c>
@@ -23067,7 +23353,7 @@
       </c>
       <c r="Q147" s="3"/>
     </row>
-    <row r="148" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>4</v>
       </c>
@@ -23101,7 +23387,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="149" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>169</v>
       </c>
@@ -23123,7 +23409,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="150" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>86</v>
       </c>
@@ -23149,7 +23435,7 @@
       <c r="I150" s="4"/>
       <c r="Q150" s="3"/>
     </row>
-    <row r="151" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>155</v>
       </c>
@@ -23174,7 +23460,7 @@
       <c r="R151" s="5"/>
       <c r="S151" s="5"/>
     </row>
-    <row r="152" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>76</v>
       </c>
@@ -23202,7 +23488,7 @@
       <c r="R152" s="5"/>
       <c r="S152" s="5"/>
     </row>
-    <row r="153" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>154</v>
       </c>
@@ -23224,7 +23510,7 @@
       </c>
       <c r="Q153" s="3"/>
     </row>
-    <row r="154" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>80</v>
       </c>
@@ -23258,7 +23544,7 @@
       </c>
       <c r="Q154" s="3"/>
     </row>
-    <row r="155" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>93</v>
       </c>
@@ -23296,7 +23582,7 @@
       </c>
       <c r="Q155" s="3"/>
     </row>
-    <row r="156" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>65</v>
       </c>
@@ -23323,7 +23609,7 @@
       <c r="I156" s="4"/>
       <c r="Q156" s="3"/>
     </row>
-    <row r="157" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>38</v>
       </c>
@@ -23349,7 +23635,7 @@
       </c>
       <c r="I157" s="4"/>
     </row>
-    <row r="158" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>386</v>
       </c>
@@ -23375,7 +23661,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="159" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>92</v>
       </c>
@@ -23412,7 +23698,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="160" spans="2:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>100</v>
       </c>
@@ -23440,7 +23726,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="161" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>39</v>
       </c>
@@ -23477,7 +23763,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>57</v>
       </c>
@@ -23514,7 +23800,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="163" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>101</v>
       </c>
@@ -23539,7 +23825,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="164" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>18</v>
       </c>
@@ -23576,7 +23862,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="165" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>122</v>
       </c>
@@ -23602,7 +23888,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="166" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>188</v>
       </c>
@@ -23639,7 +23925,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>26</v>
       </c>
@@ -23676,7 +23962,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="168" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>27</v>
       </c>
@@ -23713,7 +23999,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="169" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>46</v>
       </c>
@@ -23750,7 +24036,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="170" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>102</v>
       </c>
@@ -23775,7 +24061,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="171" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>41</v>
       </c>
@@ -23809,7 +24095,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="172" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>61</v>
       </c>
@@ -23835,7 +24121,7 @@
       </c>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>30</v>
       </c>
@@ -23872,7 +24158,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="174" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>89</v>
       </c>
@@ -23906,7 +24192,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="175" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>43</v>
       </c>
@@ -23943,7 +24229,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="176" spans="2:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>48</v>
       </c>
@@ -23980,7 +24266,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="177" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>35</v>
       </c>
@@ -24014,7 +24300,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="178" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>103</v>
       </c>
@@ -24051,7 +24337,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="179" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>34</v>
       </c>
@@ -24088,7 +24374,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="180" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>21</v>
       </c>
@@ -24124,7 +24410,7 @@
       <c r="T180" s="5"/>
       <c r="U180" s="5"/>
     </row>
-    <row r="181" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>45</v>
       </c>
@@ -24161,7 +24447,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="182" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>28</v>
       </c>
@@ -24198,7 +24484,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="183" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
         <v>87</v>
       </c>
@@ -24235,7 +24521,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
         <v>75</v>
       </c>
@@ -24272,7 +24558,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="185" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
         <v>187</v>
       </c>
@@ -24309,7 +24595,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="186" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>453</v>
       </c>
@@ -24337,7 +24623,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
     </row>
-    <row r="187" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
         <v>454</v>
       </c>
@@ -24364,7 +24650,7 @@
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>455</v>
       </c>
@@ -24391,7 +24677,7 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
         <v>456</v>
       </c>
@@ -24421,7 +24707,7 @@
       <c r="R189" s="5"/>
       <c r="S189" s="5"/>
     </row>
-    <row r="190" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
         <v>457</v>
       </c>
@@ -24448,7 +24734,7 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>458</v>
       </c>
@@ -24475,7 +24761,7 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="2:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>160</v>
       </c>
@@ -24508,21 +24794,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D9326B-F09C-418D-AEEB-CF112B606F66}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -24542,7 +24828,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1985</v>
       </c>
@@ -24567,7 +24853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1986</v>
       </c>
@@ -24592,7 +24878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1987</v>
       </c>
@@ -24617,7 +24903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1988</v>
       </c>
@@ -24642,7 +24928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1989</v>
       </c>
@@ -24667,7 +24953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1990</v>
       </c>
@@ -24692,7 +24978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1991</v>
       </c>
@@ -24717,7 +25003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1992</v>
       </c>
@@ -24742,7 +25028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1993</v>
       </c>
@@ -24767,7 +25053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1994</v>
       </c>
@@ -24792,7 +25078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1995</v>
       </c>
@@ -24817,7 +25103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1996</v>
       </c>
@@ -24842,7 +25128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1997</v>
       </c>
@@ -24867,7 +25153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1998</v>
       </c>
@@ -24892,7 +25178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1999</v>
       </c>
@@ -24917,7 +25203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -24942,7 +25228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2001</v>
       </c>
@@ -24967,7 +25253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2002</v>
       </c>
@@ -24992,7 +25278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2003</v>
       </c>
@@ -25017,7 +25303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -25042,7 +25328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2005</v>
       </c>
@@ -25067,7 +25353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2006</v>
       </c>
@@ -25092,7 +25378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2007</v>
       </c>
@@ -25117,7 +25403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2008</v>
       </c>
@@ -25142,7 +25428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2009</v>
       </c>
@@ -25167,7 +25453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2010</v>
       </c>
@@ -25192,7 +25478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -25217,7 +25503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -25242,7 +25528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -25267,7 +25553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -25292,7 +25578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -25317,7 +25603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2016</v>
       </c>
@@ -25342,7 +25628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2017</v>
       </c>
@@ -25367,7 +25653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -25392,7 +25678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -25417,7 +25703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -25441,8 +25727,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <f>SUM(F2:F40)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -25467,7 +25757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -25492,7 +25782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2023</v>
       </c>
